--- a/reports/blogpost/20240722_swissuniversities_findability_detailed_version.xlsx
+++ b/reports/blogpost/20240722_swissuniversities_findability_detailed_version.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="\\nas12.ethz.ch\ethbib_services_data07_s1\RAS\TOBI\commercial_database_benchmarks\blogpost2_supplementarydata_Michelle\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D83521E4-7C3C-4857-A0C2-1F18B93001CA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9626D21B-DA96-4517-A0C9-180F9F8DA3A8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-24132" yWindow="2616" windowWidth="23040" windowHeight="11772" xr2:uid="{2DFDC60A-E339-4CC4-8859-F2755B2419E2}"/>
+    <workbookView xWindow="2340" yWindow="2340" windowWidth="23040" windowHeight="11790" xr2:uid="{2DFDC60A-E339-4CC4-8859-F2755B2419E2}"/>
   </bookViews>
   <sheets>
     <sheet name="Blog" sheetId="2" r:id="rId1"/>
@@ -375,9 +375,6 @@
     <t># pub. &gt; 0</t>
   </si>
   <si>
-    <t>Retrievel Date</t>
-  </si>
-  <si>
     <t>Q1 2024</t>
   </si>
   <si>
@@ -392,6 +389,9 @@
   </si>
   <si>
     <t>OpenAlex</t>
+  </si>
+  <si>
+    <t>Retrieval Date</t>
   </si>
 </sst>
 </file>
@@ -785,21 +785,21 @@
   <dimension ref="A1:I55"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="C3" sqref="C3:I3"/>
+      <selection activeCell="A4" sqref="A4"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="110.44140625" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="110.42578125" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="11" style="2" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="10.5546875" style="2" customWidth="1"/>
+    <col min="3" max="3" width="10.5703125" style="2" customWidth="1"/>
     <col min="4" max="5" width="9" style="2" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="11.77734375" style="2" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="9.88671875" style="2" bestFit="1" customWidth="1"/>
-    <col min="8" max="9" width="9.5546875" style="2" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="11.7109375" style="2" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="9.85546875" style="2" bestFit="1" customWidth="1"/>
+    <col min="8" max="9" width="9.5703125" style="2" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A1" s="3" t="s">
         <v>0</v>
       </c>
@@ -807,7 +807,7 @@
         <v>1</v>
       </c>
       <c r="C1" s="4" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="D1" s="4" t="s">
         <v>107</v>
@@ -822,13 +822,13 @@
         <v>106</v>
       </c>
       <c r="H1" s="5" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="I1" s="5" t="s">
-        <v>116</v>
-      </c>
-    </row>
-    <row r="2" spans="1:9" s="1" customFormat="1" ht="30.75" customHeight="1" x14ac:dyDescent="0.3">
+        <v>115</v>
+      </c>
+    </row>
+    <row r="2" spans="1:9" s="1" customFormat="1" ht="30.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" s="6"/>
       <c r="B2" s="5"/>
       <c r="C2" s="7" t="s">
@@ -841,7 +841,7 @@
         <v>109</v>
       </c>
       <c r="F2" s="8" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="G2" s="7" t="s">
         <v>110</v>
@@ -853,34 +853,34 @@
         <v>110</v>
       </c>
     </row>
-    <row r="3" spans="1:9" s="1" customFormat="1" ht="30.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:9" s="1" customFormat="1" ht="30.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A3" s="6" t="s">
-        <v>111</v>
+        <v>116</v>
       </c>
       <c r="B3" s="5"/>
       <c r="C3" s="5" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="D3" s="5" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="E3" s="5" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="F3" s="4" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="G3" s="4" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="H3" s="4" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="I3" s="4" t="s">
-        <v>112</v>
-      </c>
-    </row>
-    <row r="4" spans="1:9" x14ac:dyDescent="0.3">
+        <v>111</v>
+      </c>
+    </row>
+    <row r="4" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>2</v>
       </c>
@@ -909,7 +909,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="5" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>4</v>
       </c>
@@ -938,7 +938,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="6" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
         <v>6</v>
       </c>
@@ -967,7 +967,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
         <v>8</v>
       </c>
@@ -996,7 +996,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="8" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
         <v>10</v>
       </c>
@@ -1025,7 +1025,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="9" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
         <v>12</v>
       </c>
@@ -1054,7 +1054,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="10" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
         <v>14</v>
       </c>
@@ -1083,7 +1083,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="11" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
         <v>16</v>
       </c>
@@ -1112,7 +1112,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="12" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
         <v>18</v>
       </c>
@@ -1141,7 +1141,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="13" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
         <v>20</v>
       </c>
@@ -1170,7 +1170,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="14" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
         <v>22</v>
       </c>
@@ -1199,7 +1199,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="15" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
         <v>24</v>
       </c>
@@ -1228,7 +1228,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="16" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
         <v>26</v>
       </c>
@@ -1257,7 +1257,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="17" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
         <v>28</v>
       </c>
@@ -1286,7 +1286,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="18" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
         <v>30</v>
       </c>
@@ -1315,7 +1315,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="19" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
         <v>32</v>
       </c>
@@ -1344,7 +1344,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="20" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A20" t="s">
         <v>34</v>
       </c>
@@ -1373,7 +1373,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="21" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A21" t="s">
         <v>36</v>
       </c>
@@ -1402,7 +1402,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="22" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A22" t="s">
         <v>38</v>
       </c>
@@ -1431,7 +1431,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="23" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A23" t="s">
         <v>40</v>
       </c>
@@ -1460,7 +1460,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="24" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A24" t="s">
         <v>42</v>
       </c>
@@ -1489,7 +1489,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="25" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A25" t="s">
         <v>44</v>
       </c>
@@ -1518,7 +1518,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="26" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A26" t="s">
         <v>46</v>
       </c>
@@ -1547,7 +1547,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="27" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A27" t="s">
         <v>48</v>
       </c>
@@ -1576,7 +1576,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="28" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A28" t="s">
         <v>50</v>
       </c>
@@ -1605,7 +1605,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="29" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="29" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A29" t="s">
         <v>52</v>
       </c>
@@ -1634,7 +1634,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="30" spans="1:9" s="9" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="30" spans="1:9" s="9" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A30" s="9" t="s">
         <v>54</v>
       </c>
@@ -1663,7 +1663,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="31" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="31" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A31" t="s">
         <v>56</v>
       </c>
@@ -1692,7 +1692,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="32" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="32" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A32" t="s">
         <v>58</v>
       </c>
@@ -1721,7 +1721,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="33" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="33" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A33" t="s">
         <v>60</v>
       </c>
@@ -1750,7 +1750,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="34" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="34" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A34" t="s">
         <v>62</v>
       </c>
@@ -1779,7 +1779,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="35" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="35" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A35" t="s">
         <v>64</v>
       </c>
@@ -1808,7 +1808,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="36" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="36" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A36" t="s">
         <v>66</v>
       </c>
@@ -1837,7 +1837,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="37" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="37" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A37" t="s">
         <v>68</v>
       </c>
@@ -1866,7 +1866,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="38" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="38" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A38" t="s">
         <v>70</v>
       </c>
@@ -1895,7 +1895,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="39" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="39" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A39" t="s">
         <v>72</v>
       </c>
@@ -1924,7 +1924,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="40" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="40" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A40" t="s">
         <v>74</v>
       </c>
@@ -1953,7 +1953,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="41" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="41" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A41" t="s">
         <v>76</v>
       </c>
@@ -1982,7 +1982,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="42" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="42" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A42" t="s">
         <v>78</v>
       </c>
@@ -2011,7 +2011,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="43" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="43" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A43" t="s">
         <v>80</v>
       </c>
@@ -2040,7 +2040,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="44" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="44" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A44" t="s">
         <v>82</v>
       </c>
@@ -2069,7 +2069,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="45" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="45" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A45" t="s">
         <v>84</v>
       </c>
@@ -2098,7 +2098,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="46" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="46" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A46" t="s">
         <v>86</v>
       </c>
@@ -2127,7 +2127,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="47" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="47" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A47" t="s">
         <v>88</v>
       </c>
@@ -2156,7 +2156,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="48" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="48" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A48" t="s">
         <v>90</v>
       </c>
@@ -2185,7 +2185,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="49" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="49" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A49" t="s">
         <v>92</v>
       </c>
@@ -2214,7 +2214,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="50" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="50" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A50" t="s">
         <v>94</v>
       </c>
@@ -2243,7 +2243,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="51" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="51" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A51" t="s">
         <v>96</v>
       </c>
@@ -2272,7 +2272,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="52" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="52" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A52" t="s">
         <v>98</v>
       </c>
@@ -2301,7 +2301,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="53" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="53" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A53" t="s">
         <v>100</v>
       </c>
@@ -2330,7 +2330,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="54" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="54" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A54" t="s">
         <v>102</v>
       </c>
@@ -2359,7 +2359,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="55" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="55" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A55" t="s">
         <v>104</v>
       </c>
